--- a/PPG/Infraestrutura.xlsx
+++ b/PPG/Infraestrutura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6706A2A3-B34C-B349-94B3-ABC9349E39EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA3627-312E-BB4B-98DA-5B592B2D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,19 +169,13 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -337,72 +331,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,15 +722,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="9" customWidth="1"/>
-    <col min="2" max="3" width="17.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,17 +753,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>8.4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4.2640000000000002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>30.79</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -779,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -802,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -818,12 +815,12 @@
       <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -833,7 +830,7 @@
       <c r="C5" s="11">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>31.19</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -846,26 +843,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="17">
         <v>6</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>9</v>
       </c>
       <c r="D6" s="12">
         <v>54.07</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -875,7 +872,7 @@
       <c r="C7" s="11">
         <v>7.7</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="19">
         <v>59.4</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -888,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -907,26 +904,26 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>7.1749999999999998</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>5.411999999999999</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="19">
         <v>39.729999999999997</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PPG/Infraestrutura.xlsx
+++ b/PPG/Infraestrutura.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA3627-312E-BB4B-98DA-5B592B2D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F260E-B953-8741-875F-46483002D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Infraestrutura" sheetId="2" r:id="rId1"/>
+    <sheet name="Laboratórios" sheetId="2" r:id="rId1"/>
+    <sheet name="Gabinetes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Infraestrutura!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Gabinetes!$A$1:$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Laboratórios!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,38 +41,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Laboratórios</t>
   </si>
   <si>
-    <t>Arthur de Sá Ferreira</t>
-  </si>
-  <si>
-    <t>Agnaldo José Lopes</t>
-  </si>
-  <si>
     <t>Patrícia dos Santos Vigário</t>
   </si>
   <si>
-    <t>Leandro Alberto Calazans Nogueira</t>
-  </si>
-  <si>
     <t>Thiago Lemos de Carvalho</t>
   </si>
   <si>
-    <t>Ney Armando de Mello Meziat Filho</t>
-  </si>
-  <si>
-    <t>Luis Felipe da Fonseca Reis</t>
-  </si>
-  <si>
-    <t>Igor Ramathur Telles de Jesus</t>
-  </si>
-  <si>
-    <t>Renato Santos de Almeida</t>
-  </si>
-  <si>
     <t>Laboratório de Desempenho dos Sistemas Cardiovascular e Respiratório</t>
   </si>
   <si>
@@ -95,38 +76,83 @@
     <t>Laboratório de Desempenho Cardiopulmonar em Esforço</t>
   </si>
   <si>
-    <t>Docente 1</t>
-  </si>
-  <si>
-    <t>Docente 2</t>
-  </si>
-  <si>
-    <t>Docente 3</t>
-  </si>
-  <si>
-    <t>Fabio Vieira dos Anjos</t>
-  </si>
-  <si>
     <t>Área (m²)</t>
   </si>
   <si>
-    <t>Dimensão 1 (m)</t>
-  </si>
-  <si>
-    <t>Dimensão 2 (m)</t>
-  </si>
-  <si>
-    <t>Pablo Rodrigo de Oliveira Silva</t>
-  </si>
-  <si>
-    <t>Luciana Crepaldi Lunkes</t>
+    <t>Gabinete 1</t>
+  </si>
+  <si>
+    <t>Gabinete 2</t>
+  </si>
+  <si>
+    <t>Gabinete 3</t>
+  </si>
+  <si>
+    <t>Gabinete 4</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Docentes</t>
+  </si>
+  <si>
+    <t>Thiago Lemos de Carvalho, Igor Ramathur Telles de Jesus, Fabio Vieira dos Anjos</t>
+  </si>
+  <si>
+    <t>Agnaldo José Lopes, Luis Felipe da Fonseca Reis, Patrícia dos Santos Vigário</t>
+  </si>
+  <si>
+    <t>Laura Alice Santos de Oliveira, Thiago Lemos de Carvalho</t>
+  </si>
+  <si>
+    <t>Agnaldo José Lopes, Arthur de Sá Ferreira, Fabio Vieira dos Anjos</t>
+  </si>
+  <si>
+    <t>Igor Ramathur Telles de Jesus, Laura Alice Santos de Oliveira, Leandro Alberto Calazans Nogueira</t>
+  </si>
+  <si>
+    <t>Luciana Crepaldi Lunkes, Luis Felipe da Fonseca Reis, Ney Armando de Mello Meziat Filho</t>
+  </si>
+  <si>
+    <t>Patrícia dos Santos Vigário, Renato Santos de Almeida, Thiago Lemos de Carvalho</t>
+  </si>
+  <si>
+    <t>Leandro Alberto Calazans Nogueira, Ney Armando de Mello Meziat Filho, Renato Santos de Almeida, Luciana Crepaldi Lunkes</t>
+  </si>
+  <si>
+    <t>Fabio Vieira dos Anjos, Igor Ramathur Telles de Jesus</t>
+  </si>
+  <si>
+    <t>Arthur de Sá Ferreira, Igor Ramathur Telles de Jesus, Thiago Lemos de Carvalho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,11 +189,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,42 +198,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -226,26 +216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -253,42 +223,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -331,75 +266,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,219 +621,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="72.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4.2640000000000002</v>
-      </c>
-      <c r="D2" s="7">
-        <v>30.79</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12">
-        <v>28.6</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15">
-        <v>31.19</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12">
-        <v>54.07</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11">
-        <v>7.7</v>
-      </c>
-      <c r="C7" s="11">
-        <v>7.7</v>
-      </c>
-      <c r="D7" s="19">
-        <v>59.4</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5.125</v>
-      </c>
-      <c r="D8" s="12">
-        <v>20.84</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21">
-        <v>7.1749999999999998</v>
-      </c>
-      <c r="C9" s="21">
-        <v>5.411999999999999</v>
-      </c>
-      <c r="D9" s="19">
-        <v>39.729999999999997</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>8</v>
+      <c r="C9" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -942,4 +747,66 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB197EFB-397E-F547-A704-D51E44797DBD}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;D</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PPG/Infraestrutura.xlsx
+++ b/PPG/Infraestrutura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F260E-B953-8741-875F-46483002D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075495C-A4B6-CE4A-B90E-EDBBA0E5A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laboratórios" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>Fabio Vieira dos Anjos, Igor Ramathur Telles de Jesus</t>
   </si>
   <si>
-    <t>Arthur de Sá Ferreira, Igor Ramathur Telles de Jesus, Thiago Lemos de Carvalho</t>
+    <t>Arthur de Sá Ferreira, Igor Ramathur Telles de Jesus, Conrado Torres Laett</t>
   </si>
 </sst>
 </file>

--- a/PPG/Infraestrutura.xlsx
+++ b/PPG/Infraestrutura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075495C-A4B6-CE4A-B90E-EDBBA0E5A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C52BC-C9B8-4943-BB1B-1D5B67A0BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laboratórios" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Gabinetes!$A$1:$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Laboratórios!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Laboratórios!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Laboratórios</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Laboratório de Desempenho Cardiopulmonar em Esforço</t>
   </si>
   <si>
-    <t>Área (m²)</t>
-  </si>
-  <si>
     <t>Gabinete 1</t>
   </si>
   <si>
@@ -92,27 +89,6 @@
   </si>
   <si>
     <t>Gabinetes</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
   <si>
     <t>Docentes</t>
@@ -621,119 +597,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="13"/>
+    <col min="2" max="2" width="120" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
     <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -764,42 +712,42 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
